--- a/tolstoy_bot/botanik.xlsx
+++ b/tolstoy_bot/botanik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="18260" windowHeight="7320"/>
+    <workbookView xWindow="4720" yWindow="0" windowWidth="18260" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="script" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t xml:space="preserve">Отправляйтесь на следующую локацию! Будем ждать вас по адресу Моховая 9 стр. 1 около здания МГУ. Когда прибудете на место, дайте нам знать (скиньте location).
 </t>
@@ -305,9 +305,6 @@
     <t>has_velo|no_velo</t>
   </si>
   <si>
-    <t>Ответьте "да" или "нет"</t>
-  </si>
-  <si>
     <t>[anytext]</t>
   </si>
   <si>
@@ -324,6 +321,16 @@
   </si>
   <si>
     <t>нет|Нет|НЕТ</t>
+  </si>
+  <si>
+    <t>С удовольствием</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пожалуйста, напишите в строке ввода "С удовольствием"
+</t>
+  </si>
+  <si>
+    <t>На вопрос о наличии у вас велосипеда, пожалуйста, ответьте "да" или "нет"</t>
   </si>
 </sst>
 </file>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,12 +805,12 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="260.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
@@ -811,7 +818,7 @@
     </row>
     <row r="4" spans="1:5" ht="104.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
@@ -819,7 +826,7 @@
     </row>
     <row r="5" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>38</v>
@@ -827,13 +834,13 @@
       <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -842,15 +849,15 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -858,7 +865,7 @@
     </row>
     <row r="8" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>53</v>
@@ -866,18 +873,18 @@
     </row>
     <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>52</v>
@@ -885,15 +892,18 @@
     </row>
     <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
@@ -901,7 +911,7 @@
     </row>
     <row r="13" spans="1:5" ht="169.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>43</v>
@@ -909,7 +919,7 @@
     </row>
     <row r="14" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -917,7 +927,7 @@
     </row>
     <row r="15" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -925,7 +935,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -933,7 +943,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -941,7 +951,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
@@ -949,7 +959,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -957,7 +967,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -965,7 +975,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -973,7 +983,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -981,7 +991,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -989,7 +999,7 @@
     </row>
     <row r="24" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
@@ -997,7 +1007,7 @@
     </row>
     <row r="25" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -1005,7 +1015,7 @@
     </row>
     <row r="26" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
@@ -1013,7 +1023,7 @@
     </row>
     <row r="27" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -1021,7 +1031,7 @@
     </row>
     <row r="28" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>45</v>
@@ -1029,7 +1039,7 @@
     </row>
     <row r="29" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -1037,7 +1047,7 @@
     </row>
     <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>47</v>

--- a/tolstoy_bot/botanik.xlsx
+++ b/tolstoy_bot/botanik.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t xml:space="preserve">Отправляйтесь на следующую локацию! Будем ждать вас по адресу Моховая 9 стр. 1 около здания МГУ. Когда прибудете на место, дайте нам знать (скиньте location).
 </t>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>На вопрос о наличии у вас велосипеда, пожалуйста, ответьте "да" или "нет"</t>
+  </si>
+  <si>
+    <t>[pause]</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,7 +829,7 @@
     </row>
     <row r="5" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>38</v>
